--- a/biology/Zoologie/Nathan_Augustus_Cobb/Nathan_Augustus_Cobb.xlsx
+++ b/biology/Zoologie/Nathan_Augustus_Cobb/Nathan_Augustus_Cobb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nathan Augustus Cobb (1859-1932) est un nématologiste américain.
 </t>
@@ -513,19 +525,194 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1898
-(en) Cobb N.A., 1898. Extract from MS. report on the parasites of stock. WA Gullick.
-(en) Cobb N.A., 1898. Australian free-living marine nematodes. Proceedings of the Linnean Society of New South Wales.
-1913
-(en) Cobb N.A., 1913. New nematode genera found inhabiting fresh water and non-brackish soils. Journal of the Washington Academy of Sciences.
-1920
-(en) Cobb N.A., 1920. One hundred new nemas (type species of 100 new genera). Contributions to a science of nematology. 9: 217-343.
-1922
-(en) Cobb N.A., 1922. Greeffiella (Trichoderma Greeff, 1869, not Trichoderma Steph., 1835). Journal of the Washington Academy of Sciences 12: 299–303.
-1924
-(en) Cobb N.A., 1924. Observations on nemas [in Society Proceedings]. Journal of parasitology 11(2): 107–109.
-1926
-(en) Cobb N.A., 1926. The species of Mermis, a group of very remarkable nemas infesting insects. Journal of Parasitology 13: 66–72, DOI 10.2307/3271636.</t>
+          <t>1898</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(en) Cobb N.A., 1898. Extract from MS. report on the parasites of stock. WA Gullick.
+(en) Cobb N.A., 1898. Australian free-living marine nematodes. Proceedings of the Linnean Society of New South Wales.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nathan_Augustus_Cobb</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nathan_Augustus_Cobb</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1913</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) Cobb N.A., 1913. New nematode genera found inhabiting fresh water and non-brackish soils. Journal of the Washington Academy of Sciences.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nathan_Augustus_Cobb</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nathan_Augustus_Cobb</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) Cobb N.A., 1920. One hundred new nemas (type species of 100 new genera). Contributions to a science of nematology. 9: 217-343.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nathan_Augustus_Cobb</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nathan_Augustus_Cobb</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1922</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) Cobb N.A., 1922. Greeffiella (Trichoderma Greeff, 1869, not Trichoderma Steph., 1835). Journal of the Washington Academy of Sciences 12: 299–303.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nathan_Augustus_Cobb</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nathan_Augustus_Cobb</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) Cobb N.A., 1924. Observations on nemas [in Society Proceedings]. Journal of parasitology 11(2): 107–109.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nathan_Augustus_Cobb</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nathan_Augustus_Cobb</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1926</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(en) Cobb N.A., 1926. The species of Mermis, a group of very remarkable nemas infesting insects. Journal of Parasitology 13: 66–72, DOI 10.2307/3271636.</t>
         </is>
       </c>
     </row>
